--- a/Simulations/bin/Debug/net6.0/MedianBalances.xlsx
+++ b/Simulations/bin/Debug/net6.0/MedianBalances.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tucna\source\repos\Simulations\Simulations\bin\Debug\net6.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFAF256-F944-47F8-8B5C-8CC9612CFEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="-1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
   <sheets>
-    <sheet name="Median Balances" sheetId="1" r:id="rId3"/>
+    <sheet name="Median Balances" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -53,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="2">
     <font>
@@ -84,17 +92,897 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -122,7 +1010,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="0">
-        <v>1090</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="3">
@@ -130,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0">
-        <v>1270</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="4">
@@ -138,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0">
-        <v>1200</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0">
-        <v>1020</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="6">
@@ -154,7 +1042,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="0">
-        <v>1180</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="7">
@@ -162,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="0">
-        <v>1180</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="8">
@@ -170,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="0">
-        <v>1200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="9">
@@ -178,7 +1066,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>1100</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="10">
@@ -186,7 +1074,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="0">
-        <v>1190</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="11">
@@ -194,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="0">
-        <v>1150</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
